--- a/Liberia_Business_Credit_Report_Template.xlsx
+++ b/Liberia_Business_Credit_Report_Template.xlsx
@@ -14,27 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Business Name</t>
-  </si>
-  <si>
-    <t>Registration No</t>
-  </si>
-  <si>
-    <t>Credit Score</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Employees</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>BusinessName</t>
+  </si>
+  <si>
+    <t>RegistrationNumber</t>
+  </si>
+  <si>
+    <t>YearsInBusiness</t>
+  </si>
+  <si>
+    <t>RevenueUSD</t>
   </si>
   <si>
     <t>Acme Trading Ltd</t>
   </si>
   <si>
-    <t>RL-2025-0001</t>
+    <t>RC-00123</t>
   </si>
 </sst>
 </file>
@@ -392,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,25 +408,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2">
-        <v>720</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>150000</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
+        <v>250000</v>
       </c>
     </row>
   </sheetData>
